--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1936005.352760732</v>
+        <v>1934117.771244329</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>160.3870020100908</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>360.4619742408227</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.10844059186275</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>227.9200462529333</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>61.71927587612997</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>8.546296656423092</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231298</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>242.7378581659482</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>156.127162662147</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>258.7135939113882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.35146980185874</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>46.17260076820864</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>166.1848299532893</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>134.7426179953489</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>39.11561436815803</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>2.496989041814781</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.92423056203978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.489884506513</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664992</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>145.5209865847977</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>59.77945773664924</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>76.90718818968082</v>
       </c>
       <c r="G31" t="n">
-        <v>28.78373385838137</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789486</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415119</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206843</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3512,16 +3512,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.5060781830496</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2303.93584112542</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2050.174055763512</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1719.111168419941</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1719.111168419941</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1345.645410158861</v>
+        <v>945.6119145756962</v>
       </c>
       <c r="Y2" t="n">
-        <v>955.5060781830496</v>
+        <v>555.4725825998845</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5777702969935</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1857.168914859137</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C5" t="n">
-        <v>1857.168914859137</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>1498.903216252386</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>1113.114963654142</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>702.1290588645345</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>284.1652507627214</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1578.435103297744</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859137</v>
+        <v>1578.435103297744</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.94416071721</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776798</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7159451700479</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718037</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2057.147180581275</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2057.147180581275</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781332</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150934</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>211.6471865296038</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.489963795367</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>693.7762810288177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>693.7762810288177</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X13" t="n">
-        <v>693.7762810288177</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y13" t="n">
-        <v>693.7762810288177</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093321</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1452.277279882944</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1452.277279882944</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U16" t="n">
-        <v>1452.277279882944</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V16" t="n">
-        <v>1452.277279882944</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>1452.277279882944</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>1224.287728984927</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.495149841397</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1689.561836756087</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2298.964529638817</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1362.812616017146</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V19" t="n">
-        <v>1108.128127811259</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>818.7109577742983</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>818.7109577742983</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>268.675485541541</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>99.73930261363414</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>99.73930261363414</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>99.73930261363414</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>99.73930261363414</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028587</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609662</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609662</v>
+        <v>786.082206476519</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240055</v>
+        <v>496.6650364395584</v>
       </c>
       <c r="X22" t="n">
-        <v>468.5954956259882</v>
+        <v>268.675485541541</v>
       </c>
       <c r="Y22" t="n">
-        <v>434.3285960683721</v>
+        <v>268.675485541541</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514088</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028587</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571612</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636255</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526318</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,28 +6166,28 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557904</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557904</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028587</v>
@@ -6206,37 +6206,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6385,19 +6385,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1240.850271579528</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1017.064856369034</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>1017.064856369034</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>611.7611155708648</v>
+        <v>494.846668111021</v>
       </c>
       <c r="C31" t="n">
-        <v>498.5857979243287</v>
+        <v>381.6713504644848</v>
       </c>
       <c r="D31" t="n">
-        <v>404.2300237933638</v>
+        <v>287.3155763335197</v>
       </c>
       <c r="E31" t="n">
-        <v>312.0777954923415</v>
+        <v>287.3155763335197</v>
       </c>
       <c r="F31" t="n">
-        <v>220.9487132758019</v>
+        <v>209.6315478590945</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864671</v>
@@ -6625,10 +6625,10 @@
         <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1623.942368323873</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1390.574594818802</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1191.650971894286</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>957.9946671386961</v>
       </c>
       <c r="X31" t="n">
-        <v>902.6804289818931</v>
+        <v>785.7659815220494</v>
       </c>
       <c r="Y31" t="n">
-        <v>737.6487151197338</v>
+        <v>620.73426765989</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6680,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>143.7578250841096</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>292.8275092861694</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083195</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504502</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103117</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6923,34 +6923,34 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.529509210313</v>
@@ -7090,13 +7090,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942117</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7324,22 +7324,22 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7561,19 +7561,19 @@
         <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2497.969180129611</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506715</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083194</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504501</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103117</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>166.658803395179</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>93.88676507992579</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>358.3520020925043</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>22.04402060665494</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504496</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>8.406710013101247</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>171.296688329925</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208051</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>32.92248665775634</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>39.88923345256724</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>5.100663089359692</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,16 +10437,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928345</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706262978</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>27.80940442520279</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>151.7482092153946</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>120.0525224452881</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>151.4947344032285</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>213.02202895567</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9965794215628</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>184.660422790055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518762</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>52.39982339880552</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>13.31060320469342</v>
       </c>
       <c r="G31" t="n">
-        <v>82.50657797643916</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.876544027065393e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>924532.760747007</v>
+        <v>924532.7607470069</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590214</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="K2" t="n">
-        <v>528868.7785488522</v>
+        <v>528868.7785488507</v>
       </c>
       <c r="L2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="M2" t="n">
         <v>533677.1504117844</v>
-      </c>
-      <c r="M2" t="n">
-        <v>533677.1504117845</v>
       </c>
       <c r="N2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="O2" t="n">
+        <v>533677.1504117845</v>
+      </c>
+      <c r="P2" t="n">
         <v>533677.1504117844</v>
-      </c>
-      <c r="P2" t="n">
-        <v>533677.1504117845</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.278882670405437e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>2.354388470848789e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.60758687068</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.60758687068</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="G4" t="n">
-        <v>22174.60758687073</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="I4" t="n">
-        <v>22174.6075868707</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="K4" t="n">
-        <v>40339.23010106725</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.39482819116</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.39482819118</v>
       </c>
-      <c r="M4" t="n">
-        <v>44593.39482819114</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819111</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.39482819117</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871665</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304782.6746526941</v>
+        <v>-304782.6746526942</v>
       </c>
       <c r="C6" t="n">
-        <v>285185.2045618509</v>
+        <v>285185.2045618508</v>
       </c>
       <c r="D6" t="n">
-        <v>285185.2045618507</v>
+        <v>285185.2045618508</v>
       </c>
       <c r="E6" t="n">
-        <v>-130984.1923534616</v>
+        <v>-131081.6514794342</v>
       </c>
       <c r="F6" t="n">
-        <v>394175.8441234343</v>
+        <v>394078.384997462</v>
       </c>
       <c r="G6" t="n">
-        <v>394175.8441234342</v>
+        <v>394078.3849974619</v>
       </c>
       <c r="H6" t="n">
-        <v>394175.844123434</v>
+        <v>394078.3849974619</v>
       </c>
       <c r="I6" t="n">
-        <v>394175.8441234338</v>
+        <v>394078.3849974619</v>
       </c>
       <c r="J6" t="n">
-        <v>217752.6249308418</v>
+        <v>217655.1658048693</v>
       </c>
       <c r="K6" t="n">
-        <v>347738.7346147164</v>
+        <v>347720.2408767808</v>
       </c>
       <c r="L6" t="n">
-        <v>381025.742962701</v>
+        <v>381025.7429627008</v>
       </c>
       <c r="M6" t="n">
-        <v>256567.6345297308</v>
+        <v>256567.6345297306</v>
       </c>
       <c r="N6" t="n">
-        <v>391368.6497635676</v>
+        <v>391368.6497635678</v>
       </c>
       <c r="O6" t="n">
         <v>391368.649763568</v>
       </c>
       <c r="P6" t="n">
-        <v>347206.0444607224</v>
+        <v>347206.0444607222</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964062</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,10 +26820,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>56.06131834756698</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9.269126437646378</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>82.85718120047548</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>96.00272651142382</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>308.011824802339</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>120.1051426060687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>243.5913466674049</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858167</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>8.486309342341059</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>23.70481751979031</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352321</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,37 +33895,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>404.3111421303921</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>668.7763791429707</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>110.0570533917291</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109065</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>318.8310870635676</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081122</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.040675600518</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560246</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980132</v>
+        <v>504.4912617279379</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.76521155233</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686871</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>240.015901589281</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>127.9022662376414</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>47.01084204426638</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221136</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>462.3874039146953</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523304</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>116.1356698477039</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
